--- a/teaching/traditional_assets/database/data/jordan/jordan_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.015</v>
+        <v>-0.04480000000000001</v>
       </c>
       <c r="E2">
-        <v>0.07045000000000001</v>
+        <v>0.12475</v>
       </c>
       <c r="G2">
-        <v>0.01986552567237164</v>
+        <v>0.02999954477170301</v>
       </c>
       <c r="H2">
-        <v>0.01986552567237164</v>
+        <v>0.02999954477170301</v>
       </c>
       <c r="I2">
-        <v>0.002374459281549746</v>
+        <v>-0.0223517093822552</v>
       </c>
       <c r="J2">
-        <v>0.002160719136409163</v>
+        <v>-0.01840893343113195</v>
       </c>
       <c r="K2">
-        <v>8.731</v>
+        <v>7.032999999999999</v>
       </c>
       <c r="L2">
-        <v>0.2052614256159488</v>
+        <v>0.1600810306368644</v>
       </c>
       <c r="M2">
-        <v>1.376</v>
+        <v>2.612</v>
       </c>
       <c r="N2">
-        <v>0.01231650554958826</v>
+        <v>0.01752196954450929</v>
       </c>
       <c r="O2">
-        <v>0.1575993586072615</v>
+        <v>0.3713920090999574</v>
       </c>
       <c r="P2">
-        <v>1.376</v>
+        <v>2.612</v>
       </c>
       <c r="Q2">
-        <v>0.01231650554958826</v>
+        <v>0.01752196954450929</v>
       </c>
       <c r="R2">
-        <v>0.1575993586072615</v>
+        <v>0.3713920090999574</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.545</v>
+        <v>38.466</v>
       </c>
       <c r="V2">
-        <v>0.04963301109917651</v>
+        <v>0.2580398470517207</v>
       </c>
       <c r="W2">
-        <v>0.03004670651531006</v>
+        <v>6.319115323854661e-05</v>
       </c>
       <c r="X2">
-        <v>0.04474819181195621</v>
+        <v>0.03943164717406925</v>
       </c>
       <c r="Y2">
-        <v>-0.01470148529664615</v>
+        <v>-0.03936845602083071</v>
       </c>
       <c r="Z2">
-        <v>0.07315630159603743</v>
+        <v>0.05488978066076631</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04861667702042733</v>
+        <v>0.04377935321767417</v>
       </c>
       <c r="AC2">
-        <v>-0.04842568709035913</v>
+        <v>-0.05538314272646246</v>
       </c>
       <c r="AD2">
-        <v>473.3</v>
+        <v>1130.037</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>473.3</v>
+        <v>1130.037</v>
       </c>
       <c r="AG2">
-        <v>467.755</v>
+        <v>1091.571</v>
       </c>
       <c r="AH2">
-        <v>0.8090321698403474</v>
+        <v>0.8834577560751369</v>
       </c>
       <c r="AI2">
-        <v>0.6627923260047612</v>
+        <v>0.8189047760876039</v>
       </c>
       <c r="AJ2">
-        <v>0.807204797445964</v>
+        <v>0.8798443707728505</v>
       </c>
       <c r="AK2">
-        <v>0.6601534108149685</v>
+        <v>0.8137119624650849</v>
       </c>
       <c r="AL2">
-        <v>1.714</v>
+        <v>1.727</v>
       </c>
       <c r="AM2">
-        <v>1.714</v>
+        <v>1.576</v>
       </c>
       <c r="AN2">
-        <v>763.3870967741934</v>
+        <v>-4313.118320610687</v>
       </c>
       <c r="AO2">
-        <v>0.05892648774795798</v>
+        <v>-0.5686160972785176</v>
       </c>
       <c r="AP2">
-        <v>754.4435483870966</v>
+        <v>-4166.301526717558</v>
       </c>
       <c r="AQ2">
-        <v>0.05892648774795798</v>
+        <v>-0.6230964467005076</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>First Finance Company (ASE:FFCO)</t>
+          <t>Dar Al Aman for Islamic Finance (ASE:DAIF)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,10 +725,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.08259999999999999</v>
-      </c>
-      <c r="E3">
-        <v>-0.078</v>
+        <v>-0.12</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -743,85 +740,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.23</v>
+        <v>-0.411</v>
       </c>
       <c r="L3">
-        <v>0.6187739463601533</v>
+        <v>-0.7025641025641026</v>
       </c>
       <c r="M3">
-        <v>1.36</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.04755244755244755</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.4210526315789474</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.36</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.04755244755244755</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.4210526315789474</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>1.63</v>
+        <v>1.11</v>
       </c>
       <c r="V3">
-        <v>0.05699300699300699</v>
+        <v>0.1456692913385827</v>
       </c>
       <c r="W3">
-        <v>0.04555712270803949</v>
+        <v>-0.02795918367346939</v>
       </c>
       <c r="X3">
-        <v>0.03414204786334271</v>
+        <v>0.02436188682530689</v>
       </c>
       <c r="Y3">
-        <v>0.01141507484469678</v>
+        <v>-0.05232107049877628</v>
       </c>
       <c r="Z3">
-        <v>0.07295291602029265</v>
+        <v>0.04004380861113013</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03528852872040537</v>
+        <v>0.02464878208897628</v>
       </c>
       <c r="AC3">
-        <v>-0.03528852872040537</v>
+        <v>-0.02464878208897628</v>
       </c>
       <c r="AD3">
-        <v>1.3</v>
+        <v>0.097</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.3</v>
+        <v>0.097</v>
       </c>
       <c r="AG3">
-        <v>-0.3299999999999998</v>
+        <v>-1.013</v>
       </c>
       <c r="AH3">
-        <v>0.04347826086956522</v>
+        <v>0.01256965141894519</v>
       </c>
       <c r="AI3">
-        <v>0.02024922118380062</v>
+        <v>0.006737514760019448</v>
       </c>
       <c r="AJ3">
-        <v>-0.01167315175097276</v>
+        <v>-0.1533222339942485</v>
       </c>
       <c r="AK3">
-        <v>-0.005274093015822276</v>
+        <v>-0.07623993376985023</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -838,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Future Arab Investment Company (ASE:FUTR)</t>
+          <t>First Finance Company (ASE:FFCO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -847,115 +841,109 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0195</v>
+        <v>-0.215</v>
+      </c>
+      <c r="E4">
+        <v>-0.758</v>
       </c>
       <c r="G4">
-        <v>0.01833333333333333</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01833333333333333</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.006666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>-1.39</v>
+        <v>0.004</v>
       </c>
       <c r="L4">
-        <v>-0.07722222222222222</v>
+        <v>0.001449275362318841</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.182</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.007222222222222222</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>0.182</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.007222222222222222</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>45.5</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0.261</v>
+        <v>1.79</v>
       </c>
       <c r="V4">
-        <v>0.01905109489051095</v>
+        <v>0.07103174603174603</v>
       </c>
       <c r="W4">
-        <v>-0.03871866295264624</v>
+        <v>6.319115323854661e-05</v>
       </c>
       <c r="X4">
-        <v>0.04388910789866962</v>
+        <v>0.02478278211466904</v>
       </c>
       <c r="Y4">
-        <v>-0.08260777085131586</v>
+        <v>-0.0247195909614305</v>
       </c>
       <c r="Z4">
-        <v>0.3823523164177837</v>
+        <v>0.04358124111795358</v>
       </c>
       <c r="AA4">
-        <v>0.002549015442785224</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04802580272727164</v>
+        <v>0.02580922247702357</v>
       </c>
       <c r="AC4">
-        <v>-0.04547678728448641</v>
+        <v>-0.02580922247702357</v>
       </c>
       <c r="AD4">
-        <v>12.2</v>
+        <v>1.21</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>12.2</v>
+        <v>1.21</v>
       </c>
       <c r="AG4">
-        <v>11.939</v>
+        <v>-0.5800000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.471042471042471</v>
+        <v>0.04581597879591064</v>
       </c>
       <c r="AI4">
-        <v>0.2711111111111111</v>
+        <v>0.01878590281012265</v>
       </c>
       <c r="AJ4">
-        <v>0.4656577869651702</v>
+        <v>-0.02355808285946386</v>
       </c>
       <c r="AK4">
-        <v>0.2668588926887056</v>
+        <v>-0.009262216544235069</v>
       </c>
       <c r="AL4">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1.1</v>
-      </c>
-      <c r="AN4">
-        <v>28.63849765258216</v>
-      </c>
-      <c r="AO4">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="AP4">
-        <v>28.02582159624413</v>
-      </c>
-      <c r="AQ4">
-        <v>0.1090909090909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bindar Trading and Investment Company (ASE:BIND)</t>
+          <t>Jordan Trade Facilities Company P.S.C (ASE:JOTF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,10 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0539</v>
+        <v>0.0692</v>
       </c>
       <c r="E5">
-        <v>0.429</v>
+        <v>0.0815</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -993,91 +981,91 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.8</v>
+        <v>4.39</v>
       </c>
       <c r="L5">
-        <v>0.6797853309481217</v>
+        <v>0.469017094017094</v>
       </c>
       <c r="M5">
-        <v>0.016</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.0006299212598425198</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0.004210526315789474</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0.016</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.0006299212598425198</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>0.004210526315789474</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>0.632</v>
+        <v>0.573</v>
       </c>
       <c r="V5">
-        <v>0.02488188976377953</v>
+        <v>0.02138059701492537</v>
       </c>
       <c r="W5">
-        <v>0.1210191082802548</v>
+        <v>0.1062953995157385</v>
       </c>
       <c r="X5">
-        <v>0.04024766708972312</v>
+        <v>0.03943164717406925</v>
       </c>
       <c r="Y5">
-        <v>0.08077144119053166</v>
+        <v>0.06686375234166925</v>
       </c>
       <c r="Z5">
-        <v>0.1207708594391393</v>
+        <v>0.1414110892884122</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04764382286713524</v>
+        <v>0.04377935321767417</v>
       </c>
       <c r="AC5">
-        <v>-0.04764382286713524</v>
+        <v>-0.04377935321767417</v>
       </c>
       <c r="AD5">
-        <v>14.6</v>
+        <v>34.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>14.6</v>
+        <v>34.2</v>
       </c>
       <c r="AG5">
-        <v>13.968</v>
+        <v>33.627</v>
       </c>
       <c r="AH5">
-        <v>0.365</v>
+        <v>0.5606557377049181</v>
       </c>
       <c r="AI5">
-        <v>0.2931726907630522</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AJ5">
-        <v>0.3548059337533022</v>
+        <v>0.5564896486669866</v>
       </c>
       <c r="AK5">
-        <v>0.2840872111942727</v>
+        <v>0.4244386383429891</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-0.032</v>
+      </c>
+      <c r="AQ5">
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
@@ -1088,7 +1076,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jordan Trade Facilities Company P.S.C (ASE:JOTF)</t>
+          <t>Jordan Loan Guarantee Corp. (ASE:JLGC)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1097,28 +1085,28 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.0105</v>
+        <v>0.193</v>
       </c>
       <c r="E6">
-        <v>0.103</v>
+        <v>0.168</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.3361921097770154</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3361921097770154</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2246998284734134</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1805482832295146</v>
       </c>
       <c r="K6">
-        <v>3.84</v>
+        <v>1.38</v>
       </c>
       <c r="L6">
-        <v>0.4682926829268293</v>
+        <v>0.2367066895368782</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1142,61 +1130,67 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.642</v>
+        <v>34.1</v>
       </c>
       <c r="V6">
-        <v>0.0281578947368421</v>
+        <v>0.8317073170731708</v>
       </c>
       <c r="W6">
-        <v>0.1066666666666667</v>
+        <v>0.02738095238095238</v>
       </c>
       <c r="X6">
-        <v>0.0456072757252428</v>
+        <v>0.3061190327436045</v>
       </c>
       <c r="Y6">
-        <v>0.06105939094142386</v>
+        <v>-0.2787380803626521</v>
       </c>
       <c r="Z6">
-        <v>0.1200234192037471</v>
+        <v>0.01281825777230553</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.002314314434783145</v>
       </c>
       <c r="AB6">
-        <v>0.04920755131358302</v>
+        <v>0.05769745716124561</v>
       </c>
       <c r="AC6">
-        <v>-0.04920755131358302</v>
+        <v>-0.05538314272646246</v>
       </c>
       <c r="AD6">
-        <v>23.7</v>
+        <v>969</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>23.7</v>
+        <v>969</v>
       </c>
       <c r="AG6">
-        <v>23.058</v>
+        <v>934.9</v>
       </c>
       <c r="AH6">
-        <v>0.5096774193548387</v>
+        <v>0.9594059405940594</v>
       </c>
       <c r="AI6">
-        <v>0.3726415094339623</v>
+        <v>0.9484193011647254</v>
       </c>
       <c r="AJ6">
-        <v>0.5028130315321209</v>
+        <v>0.957987498719131</v>
       </c>
       <c r="AK6">
-        <v>0.3662441627751835</v>
+        <v>0.9466383151073309</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>672.9166666666667</v>
+      </c>
+      <c r="AP6">
+        <v>649.2361111111111</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jordan Loan Guarantee Corp. (ASE:JLGC)</t>
+          <t>Comprehensive Leasing Company (ASE:LEAS)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,112 +1210,115 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.168</v>
+        <v>0.127</v>
       </c>
       <c r="E7">
-        <v>0.0379</v>
+        <v>0.176</v>
       </c>
       <c r="G7">
-        <v>0.2569316081330869</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2569316081330869</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.154898336414048</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.132902033271719</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.721</v>
+        <v>5.91</v>
       </c>
       <c r="L7">
-        <v>0.133271719038817</v>
+        <v>0.5851485148514852</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>2.43</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.06883852691218131</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.4111675126903553</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>2.43</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.06883852691218131</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.4111675126903553</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
       <c r="U7">
-        <v>2.38</v>
+        <v>0.302</v>
       </c>
       <c r="V7">
-        <v>0.1286486486486486</v>
+        <v>0.008555240793201134</v>
       </c>
       <c r="W7">
-        <v>0.01453629032258064</v>
+        <v>0.24625</v>
       </c>
       <c r="X7">
-        <v>0.2872457437804601</v>
+        <v>0.05813568361079216</v>
       </c>
       <c r="Y7">
-        <v>-0.2727094534578794</v>
+        <v>0.1881143163892078</v>
       </c>
       <c r="Z7">
-        <v>0.01729650233390882</v>
+        <v>0.08103402626786159</v>
       </c>
       <c r="AA7">
-        <v>0.002298740328665516</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.06287480089764245</v>
+        <v>0.05641522856965982</v>
       </c>
       <c r="AC7">
-        <v>-0.06057606056897694</v>
+        <v>-0.05641522856965982</v>
       </c>
       <c r="AD7">
-        <v>406.8</v>
+        <v>100.4</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>406.8</v>
+        <v>100.4</v>
       </c>
       <c r="AG7">
-        <v>404.42</v>
+        <v>100.098</v>
       </c>
       <c r="AH7">
-        <v>0.9565012932047966</v>
+        <v>0.7398673544583642</v>
       </c>
       <c r="AI7">
-        <v>0.8897637795275591</v>
+        <v>0.7911741528762806</v>
       </c>
       <c r="AJ7">
-        <v>0.9562565024118036</v>
+        <v>0.7392871386578826</v>
       </c>
       <c r="AK7">
-        <v>0.8891869310936195</v>
+        <v>0.7906759980410433</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>402.7722772277228</v>
-      </c>
-      <c r="AP7">
-        <v>400.4158415841584</v>
+        <v>0.024</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1341,25 +1338,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.464</v>
+        <v>-0.411</v>
       </c>
       <c r="G8">
-        <v>-7.543103448275862</v>
+        <v>-2.4321608040201</v>
       </c>
       <c r="H8">
-        <v>-7.543103448275862</v>
+        <v>-2.4321608040201</v>
       </c>
       <c r="I8">
-        <v>-7.387931034482758</v>
+        <v>-1.618090452261306</v>
       </c>
       <c r="J8">
-        <v>-7.387931034482758</v>
+        <v>-1.618090452261306</v>
       </c>
       <c r="K8">
-        <v>-1.47</v>
+        <v>-1.12</v>
       </c>
       <c r="L8">
-        <v>-12.67241379310345</v>
+        <v>-5.628140703517588</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1383,73 +1380,201 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.00135593220338983</v>
       </c>
       <c r="W8">
-        <v>-0.06837209302325581</v>
+        <v>-0.05773195876288661</v>
       </c>
       <c r="X8">
-        <v>0.09595339859627282</v>
+        <v>0.08769146732563288</v>
       </c>
       <c r="Y8">
-        <v>-0.1643254916195286</v>
+        <v>-0.1454234260885195</v>
       </c>
       <c r="Z8">
-        <v>0.003274616079494128</v>
+        <v>0.005801749271137027</v>
       </c>
       <c r="AA8">
-        <v>-0.02419263775971093</v>
+        <v>-0.009387755102040818</v>
       </c>
       <c r="AB8">
-        <v>0.06347982351009662</v>
+        <v>0.05803813249625805</v>
       </c>
       <c r="AC8">
-        <v>-0.08767246126980754</v>
+        <v>-0.06742588759829887</v>
       </c>
       <c r="AD8">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="AG8">
-        <v>14.7</v>
+        <v>15.696</v>
       </c>
       <c r="AH8">
-        <v>0.8438576349024111</v>
+        <v>0.8418230563002681</v>
       </c>
       <c r="AI8">
-        <v>0.4285714285714286</v>
+        <v>0.4617647058823529</v>
       </c>
       <c r="AJ8">
-        <v>0.8438576349024111</v>
+        <v>0.8417891236726375</v>
       </c>
       <c r="AK8">
-        <v>0.4285714285714286</v>
+        <v>0.461701376632545</v>
       </c>
       <c r="AL8">
-        <v>0.614</v>
+        <v>0.794</v>
       </c>
       <c r="AM8">
-        <v>0.614</v>
+        <v>0.794</v>
       </c>
       <c r="AN8">
-        <v>-18.01470588235294</v>
+        <v>-57.72058823529411</v>
       </c>
       <c r="AO8">
-        <v>-1.395765472312704</v>
+        <v>-0.4055415617128463</v>
       </c>
       <c r="AP8">
-        <v>-18.01470588235294</v>
+        <v>-57.70588235294117</v>
       </c>
       <c r="AQ8">
-        <v>-1.395765472312704</v>
+        <v>-0.4055415617128463</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Future Arab Investment Company (ASE:FUTR)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>-0.04480000000000001</v>
+      </c>
+      <c r="G9">
+        <v>-0.0104635761589404</v>
+      </c>
+      <c r="H9">
+        <v>-0.0104635761589404</v>
+      </c>
+      <c r="I9">
+        <v>-0.1304635761589404</v>
+      </c>
+      <c r="J9">
+        <v>-0.1304635761589404</v>
+      </c>
+      <c r="K9">
+        <v>-3.12</v>
+      </c>
+      <c r="L9">
+        <v>-0.2066225165562914</v>
+      </c>
+      <c r="M9">
+        <v>-0</v>
+      </c>
+      <c r="N9">
+        <v>-0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>-0</v>
+      </c>
+      <c r="Q9">
+        <v>-0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.587</v>
+      </c>
+      <c r="V9">
+        <v>0.05754901960784314</v>
+      </c>
+      <c r="W9">
+        <v>-0.09659442724458206</v>
+      </c>
+      <c r="X9">
+        <v>0.03523763466243655</v>
+      </c>
+      <c r="Y9">
+        <v>-0.1318320619070186</v>
+      </c>
+      <c r="Z9">
+        <v>0.3551604101985135</v>
+      </c>
+      <c r="AA9">
+        <v>-0.04633549722457428</v>
+      </c>
+      <c r="AB9">
+        <v>0.04097763333158699</v>
+      </c>
+      <c r="AC9">
+        <v>-0.08731313055616127</v>
+      </c>
+      <c r="AD9">
+        <v>9.43</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>9.43</v>
+      </c>
+      <c r="AG9">
+        <v>8.843</v>
+      </c>
+      <c r="AH9">
+        <v>0.4803871625063678</v>
+      </c>
+      <c r="AI9">
+        <v>0.2434805060676478</v>
+      </c>
+      <c r="AJ9">
+        <v>0.4643701097516148</v>
+      </c>
+      <c r="AK9">
+        <v>0.2318380830034344</v>
+      </c>
+      <c r="AL9">
+        <v>0.909</v>
+      </c>
+      <c r="AM9">
+        <v>0.79</v>
+      </c>
+      <c r="AN9">
+        <v>-6.594405594405594</v>
+      </c>
+      <c r="AO9">
+        <v>-2.167216721672167</v>
+      </c>
+      <c r="AP9">
+        <v>-6.183916083916084</v>
+      </c>
+      <c r="AQ9">
+        <v>-2.493670886075949</v>
       </c>
     </row>
   </sheetData>
